--- a/experiments/figures/FSC_UN_metrics.xlsx
+++ b/experiments/figures/FSC_UN_metrics.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,15 @@
       </c>
       <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>standard_blocking</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -497,17 +499,27 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
           <t>recall</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>precision</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>f1</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>runtime</t>
         </is>
       </c>
     </row>
@@ -526,14 +538,24 @@
       <c r="D4" t="n">
         <v>87.84389140271495</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38:05</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>90.50976138828634</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>90.32889805097452</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>90.41881621034715</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -551,14 +573,24 @@
       <c r="D5" t="n">
         <v>87.04818655158437</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>17:52</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
         <v>87.6355748373102</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>96.48129296800371</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>91.84554180658614</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>07:28</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -576,14 +608,24 @@
       <c r="D6" t="n">
         <v>82.7577415483876</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18:02</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>87.68980477223428</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>82.40861916160722</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>84.95760329649252</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>07:38</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -601,14 +643,24 @@
       <c r="D7" t="n">
         <v>82.33171541538772</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>86.3882863340564</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>90.17127496159753</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>88.23203674518149</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>06:19</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -626,14 +678,24 @@
       <c r="D8" t="n">
         <v>87.8798279514113</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45:44</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>95.24463991203957</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>82.42569510592241</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>88.34838725360869</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>38:31</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -651,14 +713,24 @@
       <c r="D9" t="n">
         <v>87.41624636968196</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:56</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
         <v>93.87025838372733</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>84.29241322497347</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>88.81481854298615</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -676,14 +748,24 @@
       <c r="D10" t="n">
         <v>83.86294803146222</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18:18</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
         <v>93.34799340296865</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>72.47775788657921</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>81.46879318583771</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15:41</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -701,14 +783,24 @@
       <c r="D11" t="n">
         <v>71.03170969396606</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
         <v>70.56074766355141</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>79.056699479698</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>74.50678673579738</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11:51</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -726,14 +818,24 @@
       <c r="D12" t="n">
         <v>76.43810974340107</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40:46</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>90.40178571428572</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>66.9914955021338</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>76.91402717989197</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>37:31</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -751,14 +853,24 @@
       <c r="D13" t="n">
         <v>71.01496368788065</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
         <v>72.43303571428572</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>66.44702257909805</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>69.30103007593783</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>14:37</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -776,14 +888,24 @@
       <c r="D14" t="n">
         <v>65.08612932014162</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>16:27</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>77.56696428571429</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>45.7689997644006</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>57.12655561836202</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -801,14 +923,24 @@
       <c r="D15" t="n">
         <v>67.4170362782927</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>11:48</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>63.95089285714286</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>61.08582515923927</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>62.34161426352001</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10:53</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -826,14 +958,24 @@
       <c r="D16" t="n">
         <v>68.25008851209748</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>46:37</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
         <v>87.70491803278689</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>48.97717019528601</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>62.84258595363351</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>64:01</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -851,14 +993,24 @@
       <c r="D17" t="n">
         <v>68.29153393056268</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>18:20</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
         <v>94.05737704918033</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>52.35956104031314</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>67.26687358430482</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>23:14</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -876,14 +1028,24 @@
       <c r="D18" t="n">
         <v>59.68231900651002</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
         <v>87.44877049180329</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>38.89796717690569</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>53.69018100669477</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>24:03</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -901,14 +1063,24 @@
       <c r="D19" t="n">
         <v>66.14287432951053</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>14:18</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
         <v>85.70696721311475</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>49.02541226851623</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>62.32773550194856</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -926,14 +1098,24 @@
       <c r="D20" t="n">
         <v>52.54246072601713</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>55:33</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
         <v>86.61311914323963</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>42.74048617735325</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>57.23191474229568</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>48:06</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -951,14 +1133,24 @@
       <c r="D21" t="n">
         <v>65.93612429336963</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22:51</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
         <v>79.18340026773762</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>66.35139011918184</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>72.20123054596817</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>19:54</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -976,14 +1168,24 @@
       <c r="D22" t="n">
         <v>46.81193187948244</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23:16</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
         <v>84.06961178045515</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>33.12328044829854</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>47.48017618146611</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20:16</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1001,20 +1203,30 @@
       <c r="D23" t="n">
         <v>42.41804346890903</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>17:01</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
         <v>54.75234270414994</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>38.53615590435504</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>45.20666205751201</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
